--- a/biology/Botanique/Chanson_à_boire/Chanson_à_boire.xlsx
+++ b/biology/Botanique/Chanson_à_boire/Chanson_à_boire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chanson_%C3%A0_boire</t>
+          <t>Chanson_à_boire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une chanson à boire est une chanson de fin de repas qui encourage la consommation de vin, parfois plus largement d'alcool. Les chansons à boire sont généralement interprétées en groupe : pour les repas de famille, les banquets de mariage, les fêtes étudiantes...
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chanson_%C3%A0_boire</t>
+          <t>Chanson_à_boire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chanson_%C3%A0_boire</t>
+          <t>Chanson_à_boire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Constitution des chansons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Même s'il est difficile d'établir un modèle commun à toutes les chansons à boire, celles-ci partagent au moins les traits suivants :
 la présence de nombreuses incitations explicites à la consommation ;
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chanson_%C3%A0_boire</t>
+          <t>Chanson_à_boire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chevaliers de la table ronde
 Un air bien connu de Gabriel Bataille : « Boute, boute, boute, boute compagnon, vide-nous ce verre et nous le remplirons… », revivifié par Tri Yann avec leur « Chanson à boire » ;
@@ -580,7 +598,7 @@
 La Vigne au vin
 Au 31 du mois d'Août (« Buvons un coup, buvons-en deux, à la santé des amoureux, à la santé du roi de France, et merde pour le roi d'Angleterre, qui nous a déclaré la guerre… »). Chanson s'inspirant de la prise du Kent par Robert Surcouf à bord de La Confiance, le 7 octobre 1800 (bien que la date ne soit pas la même).
 « 51 je t'aime et j'en boirai des tonneaux (et des tonneaux) à me rouler par-terre dans tous les caniveaux… »
-L'à-fond liégeois a fait quelques naître quelques chansons : De Frontibus [2],[3]
+L'à-fond liégeois a fait quelques naître quelques chansons : De Frontibus ,
 « Et il parait que les rouennais s'étaient noyés dans une cuve de calvados... ». Chanson à boire entonnée par les étudiants de Rouen.
 « Buvons un coup, ma serpette est perdue, mais le manche est revenu… »
 Boire un petit coup
@@ -588,7 +606,7 @@
 « J'ai deux amours, la kanterbrau, la kronenbourg… »
 Viens boire un p'tit coup à la maison de Licence IV (groupe)
 Fanchon
-À la santé de Noé et Alexandre, dont le nom a rempli la terre[4], typiques de la Vallée d'Aoste.
+À la santé de Noé et Alexandre, dont le nom a rempli la terre, typiques de la Vallée d'Aoste.
 Du rhum, des femmes de Soldat Louis</t>
         </is>
       </c>
